--- a/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
+++ b/NatmiData/natmiOut_TPM/YoungD4/LR-pairs_lrc2p/Spp1-Itga9.xlsx
@@ -540,16 +540,16 @@
         <v>1</v>
       </c>
       <c r="G2">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H2">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J2">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K2">
         <v>3</v>
@@ -558,28 +558,28 @@
         <v>1</v>
       </c>
       <c r="M2">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N2">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P2">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q2">
-        <v>57.521545444648</v>
+        <v>62.69535513759546</v>
       </c>
       <c r="R2">
-        <v>517.693909001832</v>
+        <v>564.258196238359</v>
       </c>
       <c r="S2">
-        <v>0.0003718943996213124</v>
+        <v>0.001289485550705343</v>
       </c>
       <c r="T2">
-        <v>0.0003718943996213125</v>
+        <v>0.001289485550705343</v>
       </c>
     </row>
     <row r="3" spans="1:20">
@@ -602,16 +602,16 @@
         <v>1</v>
       </c>
       <c r="G3">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H3">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J3">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K3">
         <v>3</v>
@@ -626,22 +626,22 @@
         <v>12.265592</v>
       </c>
       <c r="O3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P3">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q3">
-        <v>57.691408221472</v>
+        <v>43.78461595822489</v>
       </c>
       <c r="R3">
-        <v>519.222673993248</v>
+        <v>394.061543624024</v>
       </c>
       <c r="S3">
-        <v>0.0003729926144713595</v>
+        <v>0.0009005392743593757</v>
       </c>
       <c r="T3">
-        <v>0.0003729926144713595</v>
+        <v>0.0009005392743593758</v>
       </c>
     </row>
     <row r="4" spans="1:20">
@@ -664,16 +664,16 @@
         <v>1</v>
       </c>
       <c r="G4">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H4">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J4">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K4">
         <v>3</v>
@@ -682,28 +682,28 @@
         <v>1</v>
       </c>
       <c r="M4">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N4">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P4">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q4">
-        <v>40.771294898644</v>
+        <v>124.6910184050602</v>
       </c>
       <c r="R4">
-        <v>366.941654087796</v>
+        <v>1122.219165645542</v>
       </c>
       <c r="S4">
-        <v>0.0002635989023053182</v>
+        <v>0.002564580201885523</v>
       </c>
       <c r="T4">
-        <v>0.0002635989023053183</v>
+        <v>0.002564580201885523</v>
       </c>
     </row>
     <row r="5" spans="1:20">
@@ -726,16 +726,16 @@
         <v>1</v>
       </c>
       <c r="G5">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H5">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J5">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K5">
         <v>3</v>
@@ -744,28 +744,28 @@
         <v>1</v>
       </c>
       <c r="M5">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N5">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P5">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q5">
-        <v>2.08104713662</v>
+        <v>1.762055646151222</v>
       </c>
       <c r="R5">
-        <v>18.72942422958</v>
+        <v>15.858500815361</v>
       </c>
       <c r="S5">
-        <v>1.34546067821089E-05</v>
+        <v>3.624104672928584E-05</v>
       </c>
       <c r="T5">
-        <v>1.34546067821089E-05</v>
+        <v>3.624104672928584E-05</v>
       </c>
     </row>
     <row r="6" spans="1:20">
@@ -788,16 +788,16 @@
         <v>1</v>
       </c>
       <c r="G6">
-        <v>14.110548</v>
+        <v>10.70913233333333</v>
       </c>
       <c r="H6">
-        <v>42.331644</v>
+        <v>32.127397</v>
       </c>
       <c r="I6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="J6">
-        <v>0.001427319132920652</v>
+        <v>0.007451729107954897</v>
       </c>
       <c r="K6">
         <v>3</v>
@@ -806,28 +806,28 @@
         <v>1</v>
       </c>
       <c r="M6">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N6">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P6">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q6">
-        <v>62.70060572631199</v>
+        <v>129.3733045106588</v>
       </c>
       <c r="R6">
-        <v>564.3054515368079</v>
+        <v>1164.359740595929</v>
       </c>
       <c r="S6">
-        <v>0.0004053786097405526</v>
+        <v>0.00266088303427537</v>
       </c>
       <c r="T6">
-        <v>0.0004053786097405527</v>
+        <v>0.00266088303427537</v>
       </c>
     </row>
     <row r="7" spans="1:20">
@@ -856,10 +856,10 @@
         <v>141.883735</v>
       </c>
       <c r="I7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J7">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K7">
         <v>3</v>
@@ -868,28 +868,28 @@
         <v>1</v>
       </c>
       <c r="M7">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N7">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P7">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q7">
-        <v>192.7960017489256</v>
+        <v>276.8805438571162</v>
       </c>
       <c r="R7">
-        <v>1735.16401574033</v>
+        <v>2491.924894714045</v>
       </c>
       <c r="S7">
-        <v>0.001246485169436236</v>
+        <v>0.005694735436008273</v>
       </c>
       <c r="T7">
-        <v>0.001246485169436236</v>
+        <v>0.005694735436008274</v>
       </c>
     </row>
     <row r="8" spans="1:20">
@@ -918,10 +918,10 @@
         <v>141.883735</v>
       </c>
       <c r="I8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J8">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K8">
         <v>3</v>
@@ -936,10 +936,10 @@
         <v>12.265592</v>
       </c>
       <c r="O8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P8">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q8">
         <v>193.3653338829022</v>
@@ -948,10 +948,10 @@
         <v>1740.28800494612</v>
       </c>
       <c r="S8">
-        <v>0.001250166075964627</v>
+        <v>0.003977037908184654</v>
       </c>
       <c r="T8">
-        <v>0.001250166075964627</v>
+        <v>0.003977037908184655</v>
       </c>
     </row>
     <row r="9" spans="1:20">
@@ -980,10 +980,10 @@
         <v>141.883735</v>
       </c>
       <c r="I9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J9">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K9">
         <v>3</v>
@@ -992,28 +992,28 @@
         <v>1</v>
       </c>
       <c r="M9">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N9">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P9">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q9">
-        <v>136.6538847630406</v>
+        <v>550.6710491442454</v>
       </c>
       <c r="R9">
-        <v>1229.884962867365</v>
+        <v>4956.039442298209</v>
       </c>
       <c r="S9">
-        <v>0.000883509197067297</v>
+        <v>0.01132591656120077</v>
       </c>
       <c r="T9">
-        <v>0.000883509197067297</v>
+        <v>0.01132591656120077</v>
       </c>
     </row>
     <row r="10" spans="1:20">
@@ -1042,10 +1042,10 @@
         <v>141.883735</v>
       </c>
       <c r="I10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J10">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K10">
         <v>3</v>
@@ -1054,28 +1054,28 @@
         <v>1</v>
       </c>
       <c r="M10">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N10">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P10">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q10">
-        <v>6.975083236897222</v>
+        <v>7.781739564950556</v>
       </c>
       <c r="R10">
-        <v>62.77574913207501</v>
+        <v>70.035656084555</v>
       </c>
       <c r="S10">
-        <v>4.509604831794254E-05</v>
+        <v>0.0001600507837675305</v>
       </c>
       <c r="T10">
-        <v>4.509604831794254E-05</v>
+        <v>0.0001600507837675305</v>
       </c>
     </row>
     <row r="11" spans="1:20">
@@ -1104,10 +1104,10 @@
         <v>141.883735</v>
       </c>
       <c r="I11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513831</v>
       </c>
       <c r="J11">
-        <v>0.004783971291446737</v>
+        <v>0.03290895798513832</v>
       </c>
       <c r="K11">
         <v>3</v>
@@ -1116,28 +1116,28 @@
         <v>1</v>
       </c>
       <c r="M11">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N11">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P11">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q11">
-        <v>210.1547515426411</v>
+        <v>571.3493580965994</v>
       </c>
       <c r="R11">
-        <v>1891.39276388377</v>
+        <v>5142.144222869395</v>
       </c>
       <c r="S11">
-        <v>0.001358714800660636</v>
+        <v>0.01175121729597709</v>
       </c>
       <c r="T11">
-        <v>0.001358714800660636</v>
+        <v>0.01175121729597709</v>
       </c>
     </row>
     <row r="12" spans="1:20">
@@ -1160,16 +1160,16 @@
         <v>1</v>
       </c>
       <c r="G12">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H12">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J12">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K12">
         <v>3</v>
@@ -1178,28 +1178,28 @@
         <v>1</v>
       </c>
       <c r="M12">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N12">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P12">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q12">
-        <v>28649.52875682267</v>
+        <v>2408.356953175553</v>
       </c>
       <c r="R12">
-        <v>257845.758811404</v>
+        <v>21675.21257857998</v>
       </c>
       <c r="S12">
-        <v>0.1852279735200236</v>
+        <v>0.04953383684078333</v>
       </c>
       <c r="T12">
-        <v>0.1852279735200236</v>
+        <v>0.04953383684078333</v>
       </c>
     </row>
     <row r="13" spans="1:20">
@@ -1222,16 +1222,16 @@
         <v>1</v>
       </c>
       <c r="G13">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H13">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J13">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K13">
         <v>3</v>
@@ -1246,22 +1246,22 @@
         <v>12.265592</v>
       </c>
       <c r="O13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P13">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q13">
-        <v>28734.13163860748</v>
+        <v>1681.926580584586</v>
       </c>
       <c r="R13">
-        <v>258607.1847474673</v>
+        <v>15137.33922526128</v>
       </c>
       <c r="S13">
-        <v>0.1857749570491408</v>
+        <v>0.0345929936635853</v>
       </c>
       <c r="T13">
-        <v>0.1857749570491408</v>
+        <v>0.03459299366358531</v>
       </c>
     </row>
     <row r="14" spans="1:20">
@@ -1284,16 +1284,16 @@
         <v>1</v>
       </c>
       <c r="G14">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H14">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J14">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K14">
         <v>3</v>
@@ -1302,28 +1302,28 @@
         <v>1</v>
       </c>
       <c r="M14">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N14">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P14">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q14">
-        <v>20306.79768115098</v>
+        <v>4789.836193053026</v>
       </c>
       <c r="R14">
-        <v>182761.1791303588</v>
+        <v>43108.52573747723</v>
       </c>
       <c r="S14">
-        <v>0.1312896632641807</v>
+        <v>0.09851486681321393</v>
       </c>
       <c r="T14">
-        <v>0.1312896632641807</v>
+        <v>0.09851486681321393</v>
       </c>
     </row>
     <row r="15" spans="1:20">
@@ -1346,16 +1346,16 @@
         <v>1</v>
       </c>
       <c r="G15">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H15">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J15">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K15">
         <v>3</v>
@@ -1364,28 +1364,28 @@
         <v>1</v>
       </c>
       <c r="M15">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N15">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P15">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q15">
-        <v>1036.498920952506</v>
+        <v>67.68697550204666</v>
       </c>
       <c r="R15">
-        <v>9328.490288572551</v>
+        <v>609.18277951842</v>
       </c>
       <c r="S15">
-        <v>0.006701282813875363</v>
+        <v>0.001392150609710753</v>
       </c>
       <c r="T15">
-        <v>0.006701282813875363</v>
+        <v>0.001392150609710753</v>
       </c>
     </row>
     <row r="16" spans="1:20">
@@ -1408,16 +1408,16 @@
         <v>1</v>
       </c>
       <c r="G16">
-        <v>7027.984863333334</v>
+        <v>411.37678</v>
       </c>
       <c r="H16">
-        <v>21083.95459</v>
+        <v>1234.13034</v>
       </c>
       <c r="I16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="J16">
-        <v>0.7108991983381793</v>
+        <v>0.2862480573072345</v>
       </c>
       <c r="K16">
         <v>3</v>
@@ -1426,28 +1426,28 @@
         <v>1</v>
       </c>
       <c r="M16">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N16">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P16">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q16">
-        <v>31229.0428384746</v>
+        <v>4969.699857186153</v>
       </c>
       <c r="R16">
-        <v>281061.3855462714</v>
+        <v>44727.29871467538</v>
       </c>
       <c r="S16">
-        <v>0.2019053216909588</v>
+        <v>0.1022142093799411</v>
       </c>
       <c r="T16">
-        <v>0.2019053216909588</v>
+        <v>0.1022142093799411</v>
       </c>
     </row>
     <row r="17" spans="1:20">
@@ -1470,16 +1470,16 @@
         <v>1</v>
       </c>
       <c r="G17">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H17">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J17">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K17">
         <v>3</v>
@@ -1488,28 +1488,28 @@
         <v>1</v>
       </c>
       <c r="M17">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N17">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P17">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q17">
-        <v>482.5984446823545</v>
+        <v>1014.307218758401</v>
       </c>
       <c r="R17">
-        <v>4343.38600214119</v>
+        <v>9128.764968825608</v>
       </c>
       <c r="S17">
-        <v>0.00312014667644891</v>
+        <v>0.02086174485645069</v>
       </c>
       <c r="T17">
-        <v>0.00312014667644891</v>
+        <v>0.02086174485645069</v>
       </c>
     </row>
     <row r="18" spans="1:20">
@@ -1532,16 +1532,16 @@
         <v>1</v>
       </c>
       <c r="G18">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H18">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J18">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K18">
         <v>3</v>
@@ -1556,22 +1556,22 @@
         <v>12.265592</v>
       </c>
       <c r="O18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P18">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q18">
-        <v>484.0235717590177</v>
+        <v>708.3627158586836</v>
       </c>
       <c r="R18">
-        <v>4356.21214583116</v>
+        <v>6375.264442728152</v>
       </c>
       <c r="S18">
-        <v>0.003129360559255132</v>
+        <v>0.01456923698340182</v>
       </c>
       <c r="T18">
-        <v>0.003129360559255132</v>
+        <v>0.01456923698340182</v>
       </c>
     </row>
     <row r="19" spans="1:20">
@@ -1594,16 +1594,16 @@
         <v>1</v>
       </c>
       <c r="G19">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H19">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J19">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K19">
         <v>3</v>
@@ -1612,28 +1612,28 @@
         <v>1</v>
       </c>
       <c r="M19">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N19">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P19">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q19">
-        <v>342.0659746477995</v>
+        <v>2017.294579558863</v>
       </c>
       <c r="R19">
-        <v>3078.593771830195</v>
+        <v>18155.65121602976</v>
       </c>
       <c r="S19">
-        <v>0.00221156123830047</v>
+        <v>0.04149066874489243</v>
       </c>
       <c r="T19">
-        <v>0.00221156123830047</v>
+        <v>0.04149066874489244</v>
       </c>
     </row>
     <row r="20" spans="1:20">
@@ -1656,16 +1656,16 @@
         <v>1</v>
       </c>
       <c r="G20">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H20">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J20">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K20">
         <v>3</v>
@@ -1674,28 +1674,28 @@
         <v>1</v>
       </c>
       <c r="M20">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N20">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P20">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q20">
-        <v>17.45972059130278</v>
+        <v>28.50714790310589</v>
       </c>
       <c r="R20">
-        <v>157.137485321725</v>
+        <v>256.564331127953</v>
       </c>
       <c r="S20">
-        <v>0.0001128824383396771</v>
+        <v>0.0005863202342853016</v>
       </c>
       <c r="T20">
-        <v>0.0001128824383396771</v>
+        <v>0.0005863202342853018</v>
       </c>
     </row>
     <row r="21" spans="1:20">
@@ -1718,16 +1718,16 @@
         <v>1</v>
       </c>
       <c r="G21">
-        <v>118.3857016666667</v>
+        <v>173.2560603333334</v>
       </c>
       <c r="H21">
-        <v>355.157105</v>
+        <v>519.768181</v>
       </c>
       <c r="I21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="J21">
-        <v>0.01197502584967427</v>
+        <v>0.12055666021578</v>
       </c>
       <c r="K21">
         <v>3</v>
@@ -1736,28 +1736,28 @@
         <v>1</v>
       </c>
       <c r="M21">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N21">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P21">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q21">
-        <v>526.0501012316788</v>
+        <v>2093.046229530024</v>
       </c>
       <c r="R21">
-        <v>4734.45091108511</v>
+        <v>18837.41606577022</v>
       </c>
       <c r="S21">
-        <v>0.003401074937330085</v>
+        <v>0.04304868939674974</v>
       </c>
       <c r="T21">
-        <v>0.003401074937330086</v>
+        <v>0.04304868939674974</v>
       </c>
     </row>
     <row r="22" spans="1:20">
@@ -1780,16 +1780,16 @@
         <v>1</v>
       </c>
       <c r="G22">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H22">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J22">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K22">
         <v>3</v>
@@ -1798,28 +1798,28 @@
         <v>1</v>
       </c>
       <c r="M22">
-        <v>4.076492666666667</v>
+        <v>5.854382333333334</v>
       </c>
       <c r="N22">
-        <v>12.229478</v>
+        <v>17.563147</v>
       </c>
       <c r="O22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="P22">
-        <v>0.2605544836075472</v>
+        <v>0.1730451459016118</v>
       </c>
       <c r="Q22">
-        <v>10917.96468177302</v>
+        <v>4651.291101409131</v>
       </c>
       <c r="R22">
-        <v>98261.68213595715</v>
+        <v>41861.61991268218</v>
       </c>
       <c r="S22">
-        <v>0.07058798384201717</v>
+        <v>0.09566534321766416</v>
       </c>
       <c r="T22">
-        <v>0.07058798384201717</v>
+        <v>0.09566534321766419</v>
       </c>
     </row>
     <row r="23" spans="1:20">
@@ -1842,16 +1842,16 @@
         <v>1</v>
       </c>
       <c r="G23">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H23">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J23">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K23">
         <v>3</v>
@@ -1866,22 +1866,22 @@
         <v>12.265592</v>
       </c>
       <c r="O23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316524</v>
       </c>
       <c r="P23">
-        <v>0.2613239084857802</v>
+        <v>0.1208497063316525</v>
       </c>
       <c r="Q23">
-        <v>10950.20574525238</v>
+        <v>3248.32667648429</v>
       </c>
       <c r="R23">
-        <v>98551.85170727147</v>
+        <v>29234.94008835861</v>
       </c>
       <c r="S23">
-        <v>0.07079643218694821</v>
+        <v>0.06680989850212128</v>
       </c>
       <c r="T23">
-        <v>0.07079643218694821</v>
+        <v>0.0668098985021213</v>
       </c>
     </row>
     <row r="24" spans="1:20">
@@ -1904,16 +1904,16 @@
         <v>1</v>
       </c>
       <c r="G24">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H24">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J24">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K24">
         <v>3</v>
@@ -1922,28 +1922,28 @@
         <v>1</v>
       </c>
       <c r="M24">
-        <v>2.889419666666667</v>
+        <v>11.64342866666667</v>
       </c>
       <c r="N24">
-        <v>8.668259000000001</v>
+        <v>34.930286</v>
       </c>
       <c r="O24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="P24">
-        <v>0.1846811243719048</v>
+        <v>0.3441590756630932</v>
       </c>
       <c r="Q24">
-        <v>7738.65782451721</v>
+        <v>9250.672925613841</v>
       </c>
       <c r="R24">
-        <v>69647.9204206549</v>
+        <v>83256.05633052456</v>
       </c>
       <c r="S24">
-        <v>0.05003279177005102</v>
+        <v>0.1902630433419005</v>
       </c>
       <c r="T24">
-        <v>0.05003279177005102</v>
+        <v>0.1902630433419005</v>
       </c>
     </row>
     <row r="25" spans="1:20">
@@ -1966,16 +1966,16 @@
         <v>1</v>
       </c>
       <c r="G25">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H25">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J25">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K25">
         <v>3</v>
@@ -1984,28 +1984,28 @@
         <v>1</v>
       </c>
       <c r="M25">
-        <v>0.1474816666666667</v>
+        <v>0.1645376666666667</v>
       </c>
       <c r="N25">
-        <v>0.442445</v>
+        <v>0.493613</v>
       </c>
       <c r="O25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="P25">
-        <v>0.009426488072486925</v>
+        <v>0.004863441250245888</v>
       </c>
       <c r="Q25">
-        <v>394.9963263867078</v>
+        <v>130.7247359735624</v>
       </c>
       <c r="R25">
-        <v>3554.96693748037</v>
+        <v>1176.522623762062</v>
       </c>
       <c r="S25">
-        <v>0.002553772165171833</v>
+        <v>0.002688678575753016</v>
       </c>
       <c r="T25">
-        <v>0.002553772165171833</v>
+        <v>0.002688678575753017</v>
       </c>
     </row>
     <row r="26" spans="1:20">
@@ -2028,16 +2028,16 @@
         <v>1</v>
       </c>
       <c r="G26">
-        <v>2678.274088666667</v>
+        <v>794.4973246666667</v>
       </c>
       <c r="H26">
-        <v>8034.822266</v>
+        <v>2383.491974</v>
       </c>
       <c r="I26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838922</v>
       </c>
       <c r="J26">
-        <v>0.2709144853877791</v>
+        <v>0.5528345953838923</v>
       </c>
       <c r="K26">
         <v>3</v>
@@ -2046,28 +2046,28 @@
         <v>1</v>
       </c>
       <c r="M26">
-        <v>4.443527333333333</v>
+        <v>12.08065233333333</v>
       </c>
       <c r="N26">
-        <v>13.330582</v>
+        <v>36.241957</v>
       </c>
       <c r="O26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="P26">
-        <v>0.2840139954622809</v>
+        <v>0.3570826308533967</v>
       </c>
       <c r="Q26">
-        <v>11900.98411914876</v>
+        <v>9598.045959061457</v>
       </c>
       <c r="R26">
-        <v>107108.8570723388</v>
+        <v>86382.41363155312</v>
       </c>
       <c r="S26">
-        <v>0.07694350542359085</v>
+        <v>0.1974076317464533</v>
       </c>
       <c r="T26">
-        <v>0.07694350542359085</v>
+        <v>0.1974076317464533</v>
       </c>
     </row>
   </sheetData>
